--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56151132-2627-4952-A8B9-8FC82E595822}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1339928-6643-41C7-B531-39313566C7EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -54,18 +54,12 @@
     <t>Time series ARIMA model to forecast product sales.</t>
   </si>
   <si>
-    <t>https://github.com/yourusername/sales-forecasting</t>
-  </si>
-  <si>
     <t>Customer Segmentation</t>
   </si>
   <si>
     <t>K-means clustering to segment customers.</t>
   </si>
   <si>
-    <t>https://github.com/yourusername/customer-segmentation</t>
-  </si>
-  <si>
     <t>Movie Recommender</t>
   </si>
   <si>
@@ -76,6 +70,18 @@
   </si>
   <si>
     <t>../static/project.jpg</t>
+  </si>
+  <si>
+    <t>LanguagesTools</t>
+  </si>
+  <si>
+    <t>Python, ARIMA, Pandas, NumPy</t>
+  </si>
+  <si>
+    <t>Python, K-means, Scikit-learn, Pandas, NumPy</t>
+  </si>
+  <si>
+    <t>Python, Scikit-learn, Pandas, NumPy, Surprise, Matplotlib</t>
   </si>
 </sst>
 </file>
@@ -478,21 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,74 +507,189 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E02843E8-470F-408B-9826-D912AC61A8E8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DCC8CC48-69E5-4759-80CC-B45BA1612B63}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D43BFD75-4D4F-4A54-B993-F9B8B2346D49}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{8EE329E3-3928-4A23-B1DD-1B52BC106F0F}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F994E241-232D-4EE4-A813-768B333773F8}"/>
+    <hyperlink ref="D3:D11" r:id="rId2" display="https://github.com/yourusername/movie-recommender" xr:uid="{53D199F0-E0F4-49CF-BBF1-F2A20595CDA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1339928-6643-41C7-B531-39313566C7EA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922F6A38-0174-4C1F-B8E9-AE235AC7BB68}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Python, Scikit-learn, Pandas, NumPy, Surprise, Matplotlib</t>
+  </si>
+  <si>
+    <t>Library Management System</t>
+  </si>
+  <si>
+    <t>Edutrackk</t>
+  </si>
+  <si>
+    <t>HTML, CSS, Javascript, Python, Flask, MYSQL</t>
   </si>
 </sst>
 </file>
@@ -486,13 +495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
@@ -516,15 +525,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -533,15 +542,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922F6A38-0174-4C1F-B8E9-AE235AC7BB68}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EB5DB8-6B7B-4B4A-8DF0-EAEB8805ABA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Title</t>
   </si>
@@ -48,49 +48,22 @@
     <t>ImageURL</t>
   </si>
   <si>
-    <t>Sales Forecasting</t>
-  </si>
-  <si>
-    <t>Time series ARIMA model to forecast product sales.</t>
-  </si>
-  <si>
-    <t>Customer Segmentation</t>
-  </si>
-  <si>
-    <t>K-means clustering to segment customers.</t>
-  </si>
-  <si>
-    <t>Movie Recommender</t>
-  </si>
-  <si>
-    <t>Collaborative filtering using MovieLens dataset.</t>
-  </si>
-  <si>
-    <t>https://github.com/yourusername/movie-recommender</t>
-  </si>
-  <si>
-    <t>../static/project.jpg</t>
-  </si>
-  <si>
     <t>LanguagesTools</t>
   </si>
   <si>
-    <t>Python, ARIMA, Pandas, NumPy</t>
-  </si>
-  <si>
-    <t>Python, K-means, Scikit-learn, Pandas, NumPy</t>
-  </si>
-  <si>
-    <t>Python, Scikit-learn, Pandas, NumPy, Surprise, Matplotlib</t>
-  </si>
-  <si>
-    <t>Library Management System</t>
-  </si>
-  <si>
-    <t>Edutrackk</t>
-  </si>
-  <si>
-    <t>HTML, CSS, Javascript, Python, Flask, MYSQL</t>
+    <t>Microsoft Search Automation</t>
+  </si>
+  <si>
+    <t>Automates the process of searching on web browser(Microsoft Edge) using latest news headlines.</t>
+  </si>
+  <si>
+    <t>Python - BeatifulSoup, PyAutoGUI, Requests</t>
+  </si>
+  <si>
+    <t>https://github.com/Piyushgala03/Microsoft_search_automation</t>
+  </si>
+  <si>
+    <t>../static/msa.jpg</t>
   </si>
 </sst>
 </file>
@@ -493,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +477,7 @@
     <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -516,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -525,180 +498,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F994E241-232D-4EE4-A813-768B333773F8}"/>
-    <hyperlink ref="D3:D11" r:id="rId2" display="https://github.com/yourusername/movie-recommender" xr:uid="{53D199F0-E0F4-49CF-BBF1-F2A20595CDA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8EB5DB8-6B7B-4B4A-8DF0-EAEB8805ABA1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6680CED-ADC9-4956-BB41-1F2FBAFB8708}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>https://github.com/Piyushgala03/Microsoft_search_automation</t>
   </si>
   <si>
-    <t>../static/msa.jpg</t>
+    <t>../static/msa.png</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6680CED-ADC9-4956-BB41-1F2FBAFB8708}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E1D23B-8E55-4F88-A102-408C40E21E64}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Title</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>../static/msa.png</t>
+  </si>
+  <si>
+    <t>Piyushgala03/ml-premium-prediction: Healthcare Insurance Premium Prediction App</t>
+  </si>
+  <si>
+    <t>../static/hipp.jpg</t>
+  </si>
+  <si>
+    <t>Healtcare Premium Prediction</t>
+  </si>
+  <si>
+    <t>Built and deployed a machine learning model using XGBoost Regressor to predict annual health insurance premiums.</t>
+  </si>
+  <si>
+    <t>Python, Pandas, NumPy, Scikit-learn, XGBoost, Matplotlib, Seaborn, Streamlit</t>
   </si>
 </sst>
 </file>
@@ -116,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,19 +482,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -515,9 +531,27 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F994E241-232D-4EE4-A813-768B333773F8}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://github.com/Piyushgala03/ml-premium-prediction" xr:uid="{967BD5EE-893F-4AB1-BD05-B731C9557736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/projects.xlsx
+++ b/data/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d61b765d8ad07e1f/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E1D23B-8E55-4F88-A102-408C40E21E64}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{B19D959B-FA60-4BDD-BC87-FD373FB54D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7197D8-424A-48D6-BA69-B38836F78A8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8CEFB7F-253D-44AD-BDB6-1863AE9C9FE9}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>../static/msa.png</t>
   </si>
   <si>
-    <t>Piyushgala03/ml-premium-prediction: Healthcare Insurance Premium Prediction App</t>
-  </si>
-  <si>
     <t>../static/hipp.jpg</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Python, Pandas, NumPy, Scikit-learn, XGBoost, Matplotlib, Seaborn, Streamlit</t>
+  </si>
+  <si>
+    <t>https://github.com/Piyushgala03/ml-premium-prediction</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37DC3AC-6F3B-4501-9BCB-33278DD3CA67}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,25 +533,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F994E241-232D-4EE4-A813-768B333773F8}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://github.com/Piyushgala03/ml-premium-prediction" xr:uid="{967BD5EE-893F-4AB1-BD05-B731C9557736}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{967BD5EE-893F-4AB1-BD05-B731C9557736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
